--- a/biology/Zoologie/Gaufre_à_poche_du_Sud-Est/Gaufre_à_poche_du_Sud-Est.xlsx
+++ b/biology/Zoologie/Gaufre_à_poche_du_Sud-Est/Gaufre_à_poche_du_Sud-Est.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gaufre_%C3%A0_poche_du_Sud-Est</t>
+          <t>Gaufre_à_poche_du_Sud-Est</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geomys pinetis
-Le Gaufre à poche du Sud-Est[1] (Geomys pinetis) est une espèce de rongeurs de la famille des Géomyidés, à larges abajoues. C'est un petit mammifère endémique des États-Unis (Alabama, Floride et Géorgie), où il formerait des sous-espèces dont le nombre diffère selon les auteurs.
+Le Gaufre à poche du Sud-Est (Geomys pinetis) est une espèce de rongeurs de la famille des Géomyidés, à larges abajoues. C'est un petit mammifère endémique des États-Unis (Alabama, Floride et Géorgie), où il formerait des sous-espèces dont le nombre diffère selon les auteurs.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gaufre_%C3%A0_poche_du_Sud-Est</t>
+          <t>Gaufre_à_poche_du_Sud-Est</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce a été décrite pour la première fois en 1817 par Constantine Samuel Rafinesque (1783-1840), un naturaliste et un archéologue américain d'origine européenne.
-Elle aurait un comportement « préagricole » en replantant et fumant avec ses excréments les racines qu'elle affectionne (un comportement qui évoque celui qui chez les humains a précédé l'émergence de l'agriculture). Ce type de comportement ne serait pas documenté chez d'autres mammifères[2],[3].
+Elle aurait un comportement « préagricole » en replantant et fumant avec ses excréments les racines qu'elle affectionne (un comportement qui évoque celui qui chez les humains a précédé l'émergence de l'agriculture). Ce type de comportement ne serait pas documenté chez d'autres mammifères,.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gaufre_%C3%A0_poche_du_Sud-Est</t>
+          <t>Gaufre_à_poche_du_Sud-Est</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,16 +558,18 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (6 nov. 2012)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (6 nov. 2012) :
 sous-espèce Geomys pinetis austrinus
 sous-espèce Geomys pinetis colonus
 sous-espèce Geomys pinetis cumberlandius
 sous-espèce Geomys pinetis floridanus
 sous-espèce Geomys pinetis fontanelus
 sous-espèce Geomys pinetis pinetis
-Selon NCBI  (6 nov. 2012)[5] :
+Selon NCBI  (6 nov. 2012) :
 sous-espèce Geomys pinetis mobilensis
 sous-espèce Geomys pinetis pinetis</t>
         </is>
